--- a/EDA/eda_planning.xlsx
+++ b/EDA/eda_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0l05iw\Documents\toy\house_prices\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1683CA0C-51DE-411A-904F-13CC8E940009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5B089A-6ABB-4A92-A28A-AE517A7D67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_description" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="605">
   <si>
     <t>fields</t>
   </si>
@@ -1841,6 +1841,15 @@
   </si>
   <si>
     <t>Target EDA</t>
+  </si>
+  <si>
+    <t>Boxplot by class / heatmap of mct</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>Scatterplot</t>
   </si>
 </sst>
 </file>
@@ -2245,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE888919-F0FA-4BA8-A542-B191DC88A8EE}">
   <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6459,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6735,21 +6744,41 @@
       <c r="B3" t="s">
         <v>600</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.3">

--- a/EDA/eda_planning.xlsx
+++ b/EDA/eda_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0l05iw\Documents\toy\house_prices\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5B089A-6ABB-4A92-A28A-AE517A7D67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2283D85-D5E2-463A-838F-8A02CF32EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1788" yWindow="2820" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_description" sheetId="4" r:id="rId1"/>
@@ -1911,7 +1911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1921,6 +1921,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1928,6 +1934,7 @@
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1960,8 +1967,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F452A8F7-1EB2-4BB4-9CC0-C96B1F6AED79}" name="data_description__2" displayName="data_description__2" ref="A1:B524" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B524" xr:uid="{F452A8F7-1EB2-4BB4-9CC0-C96B1F6AED79}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{44AB8C47-F4F9-4985-AA53-DFBCA9DF3798}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D16C9AED-CA75-4CDF-997B-465758D2E4F8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{44AB8C47-F4F9-4985-AA53-DFBCA9DF3798}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D16C9AED-CA75-4CDF-997B-465758D2E4F8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2255,25 +2262,25 @@
   <dimension ref="A1:B524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="74.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2281,7 +2288,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2289,7 +2296,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2297,7 +2304,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2305,7 +2312,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2313,7 +2320,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2321,7 +2328,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2329,7 +2336,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2337,7 +2344,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2345,7 +2352,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2353,7 +2360,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2361,7 +2368,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2369,7 +2376,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2377,7 +2384,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2385,7 +2392,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2393,7 +2400,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2401,15 +2408,15 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2417,15 +2424,15 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2433,7 +2440,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2441,7 +2448,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2449,7 +2456,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2457,7 +2464,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2465,7 +2472,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2473,7 +2480,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2481,7 +2488,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2489,7 +2496,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2497,7 +2504,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2505,15 +2512,15 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2521,7 +2528,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2529,7 +2536,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2537,15 +2544,15 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2553,7 +2560,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2561,7 +2568,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2569,7 +2576,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2577,15 +2584,15 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2593,7 +2600,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2601,7 +2608,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2609,7 +2616,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2617,7 +2624,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2625,15 +2632,15 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2641,7 +2648,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2649,7 +2656,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2657,7 +2664,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2665,7 +2672,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2673,7 +2680,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2681,15 +2688,15 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2697,7 +2704,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2705,7 +2712,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2713,7 +2720,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2721,7 +2728,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2729,7 +2736,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2737,7 +2744,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2745,7 +2752,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2753,7 +2760,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2761,7 +2768,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2769,7 +2776,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2777,7 +2784,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>240</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2785,7 +2792,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="5" t="s">
         <v>242</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2793,7 +2800,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2801,7 +2808,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2809,7 +2816,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2817,7 +2824,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -2825,7 +2832,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -2833,7 +2840,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>248</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2841,7 +2848,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2849,7 +2856,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>252</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -2857,7 +2864,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -2865,7 +2872,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2873,7 +2880,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -2881,7 +2888,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>254</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -2889,7 +2896,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -2897,7 +2904,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -2905,15 +2912,15 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -2921,7 +2928,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -2929,7 +2936,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
         <v>260</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -2937,7 +2944,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -2945,7 +2952,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -2953,7 +2960,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="5" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -2961,7 +2968,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="5" t="s">
         <v>268</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -2969,7 +2976,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -2977,7 +2984,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -2985,7 +2992,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -2993,7 +3000,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="5" t="s">
         <v>276</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -3001,7 +3008,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -3009,7 +3016,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -3017,7 +3024,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -3025,7 +3032,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -3033,7 +3040,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="5" t="s">
         <v>286</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -3041,7 +3048,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="5" t="s">
         <v>288</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -3049,7 +3056,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -3057,7 +3064,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="5" t="s">
         <v>292</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -3065,7 +3072,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="5" t="s">
         <v>294</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -3073,7 +3080,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -3081,7 +3088,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -3089,7 +3096,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -3097,7 +3104,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -3105,7 +3112,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -3113,7 +3120,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
         <v>306</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -3121,7 +3128,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="5" t="s">
         <v>308</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -3129,15 +3136,15 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -3145,7 +3152,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -3153,7 +3160,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -3161,7 +3168,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -3169,7 +3176,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="5" t="s">
         <v>314</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -3177,7 +3184,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -3185,7 +3192,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -3193,7 +3200,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="5" t="s">
         <v>320</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -3201,7 +3208,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="5" t="s">
         <v>322</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -3209,7 +3216,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="5" t="s">
         <v>324</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -3217,7 +3224,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -3225,15 +3232,15 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -3241,7 +3248,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -3249,7 +3256,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -3257,7 +3264,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -3265,7 +3272,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="5" t="s">
         <v>314</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -3273,7 +3280,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -3281,7 +3288,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -3289,7 +3296,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="5" t="s">
         <v>320</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -3297,7 +3304,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="5" t="s">
         <v>322</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -3305,7 +3312,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="5" t="s">
         <v>324</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -3313,7 +3320,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -3321,7 +3328,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -3329,7 +3336,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -3337,7 +3344,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -3345,7 +3352,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="5" t="s">
         <v>328</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -3353,7 +3360,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -3361,7 +3368,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="5" t="s">
         <v>332</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -3369,7 +3376,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -3377,7 +3384,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="5" t="s">
         <v>336</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -3385,7 +3392,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -3393,7 +3400,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -3401,7 +3408,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -3409,7 +3416,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="5" t="s">
         <v>338</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -3417,7 +3424,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -3425,7 +3432,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="5" t="s">
         <v>342</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -3433,7 +3440,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="5" t="s">
         <v>344</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -3441,7 +3448,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="5" t="s">
         <v>346</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -3449,7 +3456,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="5" t="s">
         <v>348</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -3457,7 +3464,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="5" t="s">
         <v>350</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -3465,7 +3472,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="5" t="s">
         <v>352</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -3473,15 +3480,15 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
+    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -3489,7 +3496,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -3497,7 +3504,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -3505,7 +3512,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="5" t="s">
         <v>356</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -3513,7 +3520,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="5" t="s">
         <v>358</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -3521,7 +3528,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="5" t="s">
         <v>360</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -3529,7 +3536,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="5" t="s">
         <v>362</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -3537,7 +3544,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="5" t="s">
         <v>364</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -3545,7 +3552,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="5" t="s">
         <v>366</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -3553,7 +3560,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -3561,7 +3568,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="5" t="s">
         <v>370</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -3569,7 +3576,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="5" t="s">
         <v>372</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -3577,15 +3584,15 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -3593,7 +3600,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -3601,7 +3608,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -3609,7 +3616,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="5" t="s">
         <v>356</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -3617,7 +3624,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="5" t="s">
         <v>358</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -3625,7 +3632,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="5" t="s">
         <v>360</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -3633,7 +3640,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="5" t="s">
         <v>362</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -3641,7 +3648,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="5" t="s">
         <v>364</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -3649,7 +3656,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="5" t="s">
         <v>366</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -3657,7 +3664,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -3665,7 +3672,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="5" t="s">
         <v>370</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -3673,7 +3680,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="5" t="s">
         <v>372</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -3681,15 +3688,15 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+    <row r="179" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -3697,15 +3704,15 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -3713,7 +3720,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -3721,7 +3728,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -3729,7 +3736,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -3737,7 +3744,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="5" t="s">
         <v>374</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -3745,7 +3752,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="5" t="s">
         <v>376</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -3753,7 +3760,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -3761,7 +3768,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -3769,7 +3776,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B189" s="3" t="s">
@@ -3777,7 +3784,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -3785,7 +3792,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -3793,7 +3800,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -3801,7 +3808,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -3809,7 +3816,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -3817,7 +3824,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -3825,7 +3832,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -3833,7 +3840,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -3841,7 +3848,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -3849,7 +3856,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -3857,7 +3864,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B200" s="3" t="s">
@@ -3865,7 +3872,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="5" t="s">
         <v>400</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -3873,15 +3880,15 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+    <row r="203" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -3889,7 +3896,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -3897,7 +3904,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="5" t="s">
         <v>402</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -3905,7 +3912,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -3913,7 +3920,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -3921,7 +3928,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -3929,7 +3936,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -3937,7 +3944,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -3945,7 +3952,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="5" t="s">
         <v>414</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -3953,7 +3960,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B212" s="3" t="s">
@@ -3961,7 +3968,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="5" t="s">
         <v>418</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -3969,7 +3976,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="5" t="s">
         <v>420</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -3977,7 +3984,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -3985,7 +3992,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -3993,7 +4000,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -4001,7 +4008,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="5" t="s">
         <v>428</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -4009,7 +4016,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="5" t="s">
         <v>430</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -4017,7 +4024,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="5" t="s">
         <v>432</v>
       </c>
       <c r="B220" s="3" t="s">
@@ -4025,7 +4032,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="5" t="s">
         <v>434</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -4033,15 +4040,15 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
+    <row r="223" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -4049,7 +4056,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B224" s="3" t="s">
@@ -4057,7 +4064,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="5" t="s">
         <v>402</v>
       </c>
       <c r="B225" s="3" t="s">
@@ -4065,7 +4072,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B226" s="3" t="s">
@@ -4073,7 +4080,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -4081,7 +4088,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -4089,7 +4096,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -4097,7 +4104,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -4105,7 +4112,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="5" t="s">
         <v>414</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -4113,7 +4120,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B232" s="3" t="s">
@@ -4121,7 +4128,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="5" t="s">
         <v>418</v>
       </c>
       <c r="B233" s="3" t="s">
@@ -4129,7 +4136,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="5" t="s">
         <v>420</v>
       </c>
       <c r="B234" s="3" t="s">
@@ -4137,7 +4144,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B235" s="3" t="s">
@@ -4145,7 +4152,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B236" s="3" t="s">
@@ -4153,7 +4160,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B237" s="3" t="s">
@@ -4161,7 +4168,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="5" t="s">
         <v>428</v>
       </c>
       <c r="B238" s="3" t="s">
@@ -4169,7 +4176,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="5" t="s">
         <v>430</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -4177,7 +4184,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="5" t="s">
         <v>432</v>
       </c>
       <c r="B240" s="3" t="s">
@@ -4185,7 +4192,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="5" t="s">
         <v>434</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -4193,15 +4200,15 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+    <row r="243" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -4209,7 +4216,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B244" s="3" t="s">
@@ -4217,7 +4224,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="5" t="s">
         <v>435</v>
       </c>
       <c r="B245" s="3" t="s">
@@ -4225,7 +4232,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B246" s="3" t="s">
@@ -4233,7 +4240,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B247" s="3" t="s">
@@ -4241,7 +4248,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="5" t="s">
         <v>436</v>
       </c>
       <c r="B248" s="3" t="s">
@@ -4249,7 +4256,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B249" s="3" t="s">
@@ -4257,15 +4264,15 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+    <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B251" s="3" t="s">
@@ -4273,15 +4280,15 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+    <row r="253" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B253" s="3" t="s">
@@ -4289,7 +4296,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B254" s="3" t="s">
@@ -4297,7 +4304,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B255" s="3" t="s">
@@ -4305,7 +4312,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B256" s="3" t="s">
@@ -4313,7 +4320,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B257" s="3" t="s">
@@ -4321,7 +4328,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B258" s="3" t="s">
@@ -4329,7 +4336,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B259" s="3" t="s">
@@ -4337,15 +4344,15 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
+    <row r="261" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A261" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B261" s="3" t="s">
@@ -4353,7 +4360,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B262" s="3" t="s">
@@ -4361,7 +4368,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -4369,7 +4376,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B264" s="3" t="s">
@@ -4377,7 +4384,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B265" s="3" t="s">
@@ -4385,7 +4392,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B266" s="3" t="s">
@@ -4393,7 +4400,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B267" s="3" t="s">
@@ -4401,7 +4408,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B268" s="3" t="s">
@@ -4409,7 +4416,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B269" s="3" t="s">
@@ -4417,7 +4424,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B270" s="3" t="s">
@@ -4425,7 +4432,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -4433,7 +4440,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B272" s="3" t="s">
@@ -4441,7 +4448,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="5" t="s">
         <v>446</v>
       </c>
       <c r="B273" s="3" t="s">
@@ -4449,7 +4456,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="5" t="s">
         <v>448</v>
       </c>
       <c r="B274" s="3" t="s">
@@ -4457,7 +4464,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B275" s="3" t="s">
@@ -4465,7 +4472,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="5" t="s">
         <v>450</v>
       </c>
       <c r="B276" s="3" t="s">
@@ -4473,15 +4480,15 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
+    <row r="278" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A278" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B278" s="3" t="s">
@@ -4489,7 +4496,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B279" s="3" t="s">
@@ -4497,7 +4504,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B280" s="3" t="s">
@@ -4505,7 +4512,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B281" s="3" t="s">
@@ -4513,7 +4520,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B282" s="3" t="s">
@@ -4521,7 +4528,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B283" s="3" t="s">
@@ -4529,7 +4536,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B284" s="3" t="s">
@@ -4537,7 +4544,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -4545,15 +4552,15 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="3" t="s">
+    <row r="287" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A287" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B287" s="3" t="s">
@@ -4561,7 +4568,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B288" s="3" t="s">
@@ -4569,7 +4576,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B289" s="3" t="s">
@@ -4577,7 +4584,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B290" s="3" t="s">
@@ -4585,7 +4592,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B291" s="3" t="s">
@@ -4593,7 +4600,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B292" s="3" t="s">
@@ -4601,7 +4608,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B293" s="3" t="s">
@@ -4609,7 +4616,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B294" s="3" t="s">
@@ -4617,15 +4624,15 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
+    <row r="296" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A296" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B296" s="3" t="s">
@@ -4633,7 +4640,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B297" s="3" t="s">
@@ -4641,7 +4648,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B298" s="3" t="s">
@@ -4649,7 +4656,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="5" t="s">
         <v>463</v>
       </c>
       <c r="B299" s="3" t="s">
@@ -4657,7 +4664,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="5" t="s">
         <v>465</v>
       </c>
       <c r="B300" s="3" t="s">
@@ -4665,7 +4672,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="5" t="s">
         <v>467</v>
       </c>
       <c r="B301" s="3" t="s">
@@ -4673,7 +4680,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B302" s="3" t="s">
@@ -4681,15 +4688,15 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="3" t="s">
+    <row r="304" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A304" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B304" s="3" t="s">
@@ -4697,7 +4704,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B305" s="3" t="s">
@@ -4705,7 +4712,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B306" s="3" t="s">
@@ -4713,7 +4720,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B307" s="3" t="s">
@@ -4721,7 +4728,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="5" t="s">
         <v>473</v>
       </c>
       <c r="B308" s="3" t="s">
@@ -4729,7 +4736,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="5" t="s">
         <v>475</v>
       </c>
       <c r="B309" s="3" t="s">
@@ -4737,7 +4744,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="5" t="s">
         <v>477</v>
       </c>
       <c r="B310" s="3" t="s">
@@ -4745,7 +4752,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="5" t="s">
         <v>479</v>
       </c>
       <c r="B311" s="3" t="s">
@@ -4753,7 +4760,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B312" s="3" t="s">
@@ -4761,15 +4768,15 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
+    <row r="314" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A314" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B314" s="3" t="s">
@@ -4777,15 +4784,15 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="3" t="s">
+    <row r="316" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A316" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B316" s="3" t="s">
@@ -4793,7 +4800,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B317" s="3" t="s">
@@ -4801,7 +4808,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B318" s="3" t="s">
@@ -4809,7 +4816,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B319" s="3" t="s">
@@ -4817,7 +4824,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="5" t="s">
         <v>473</v>
       </c>
       <c r="B320" s="3" t="s">
@@ -4825,7 +4832,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="5" t="s">
         <v>475</v>
       </c>
       <c r="B321" s="3" t="s">
@@ -4833,7 +4840,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="5" t="s">
         <v>477</v>
       </c>
       <c r="B322" s="3" t="s">
@@ -4841,7 +4848,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="5" t="s">
         <v>479</v>
       </c>
       <c r="B323" s="3" t="s">
@@ -4849,7 +4856,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B324" s="3" t="s">
@@ -4857,15 +4864,15 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
+    <row r="326" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A326" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B326" s="3" t="s">
@@ -4873,15 +4880,15 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
+    <row r="328" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A328" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B328" s="3" t="s">
@@ -4889,15 +4896,15 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="3" t="s">
+    <row r="330" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A330" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B330" s="3" t="s">
@@ -4905,7 +4912,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B331" s="3" t="s">
@@ -4913,7 +4920,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B332" s="3" t="s">
@@ -4921,7 +4928,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B333" s="3" t="s">
@@ -4929,7 +4936,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="5" t="s">
         <v>481</v>
       </c>
       <c r="B334" s="3" t="s">
@@ -4937,7 +4944,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="5" t="s">
         <v>483</v>
       </c>
       <c r="B335" s="3" t="s">
@@ -4945,7 +4952,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="5" t="s">
         <v>485</v>
       </c>
       <c r="B336" s="3" t="s">
@@ -4953,7 +4960,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="5" t="s">
         <v>487</v>
       </c>
       <c r="B337" s="3" t="s">
@@ -4961,7 +4968,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="5" t="s">
         <v>489</v>
       </c>
       <c r="B338" s="3" t="s">
@@ -4969,7 +4976,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="5" t="s">
         <v>491</v>
       </c>
       <c r="B339" s="3" t="s">
@@ -4977,15 +4984,15 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
+    <row r="341" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A341" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B341" s="3" t="s">
@@ -4993,7 +5000,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B342" s="3" t="s">
@@ -5001,7 +5008,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B343" s="3" t="s">
@@ -5009,7 +5016,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B344" s="3" t="s">
@@ -5017,7 +5024,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B345" s="3" t="s">
@@ -5025,7 +5032,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B346" s="3" t="s">
@@ -5033,7 +5040,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B347" s="3" t="s">
@@ -5041,7 +5048,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B348" s="3" t="s">
@@ -5049,7 +5056,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B349" s="3" t="s">
@@ -5057,7 +5064,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B350" s="3" t="s">
@@ -5065,7 +5072,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="5" t="s">
         <v>493</v>
       </c>
       <c r="B351" s="3" t="s">
@@ -5073,7 +5080,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="5" t="s">
         <v>495</v>
       </c>
       <c r="B352" s="3" t="s">
@@ -5081,7 +5088,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B353" s="3" t="s">
@@ -5089,7 +5096,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="3" t="s">
+      <c r="A354" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B354" s="3" t="s">
@@ -5097,7 +5104,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B355" s="3" t="s">
@@ -5105,7 +5112,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="5" t="s">
         <v>497</v>
       </c>
       <c r="B356" s="3" t="s">
@@ -5113,7 +5120,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="5" t="s">
         <v>499</v>
       </c>
       <c r="B357" s="3" t="s">
@@ -5121,7 +5128,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="5" t="s">
         <v>501</v>
       </c>
       <c r="B358" s="3" t="s">
@@ -5129,7 +5136,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="5" t="s">
         <v>503</v>
       </c>
       <c r="B359" s="3" t="s">
@@ -5137,7 +5144,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="5" t="s">
         <v>505</v>
       </c>
       <c r="B360" s="3" t="s">
@@ -5145,7 +5152,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B361" s="3" t="s">
@@ -5153,7 +5160,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B362" s="3" t="s">
@@ -5161,7 +5168,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B363" s="3" t="s">
@@ -5169,7 +5176,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B364" s="3" t="s">
@@ -5177,15 +5184,15 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="3" t="s">
+    <row r="366" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A366" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B366" s="3" t="s">
@@ -5193,15 +5200,15 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="3" t="s">
+    <row r="368" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B368" s="3" t="s">
@@ -5209,15 +5216,15 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="3" t="s">
+    <row r="370" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A370" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B370" s="3" t="s">
@@ -5225,15 +5232,15 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="3" t="s">
+    <row r="372" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A372" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B372" s="3" t="s">
@@ -5241,15 +5248,15 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="3" t="s">
+    <row r="374" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A374" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B374" s="3" t="s">
@@ -5257,7 +5264,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B375" s="3" t="s">
@@ -5265,7 +5272,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B376" s="3" t="s">
@@ -5273,15 +5280,15 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="3" t="s">
+    <row r="378" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A378" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B378" s="3" t="s">
@@ -5289,7 +5296,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B379" s="3" t="s">
@@ -5297,7 +5304,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="3" t="s">
+      <c r="A380" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B380" s="3" t="s">
@@ -5305,7 +5312,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="3" t="s">
+      <c r="A381" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B381" s="3" t="s">
@@ -5313,7 +5320,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B382" s="3" t="s">
@@ -5321,7 +5328,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B383" s="3" t="s">
@@ -5329,7 +5336,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B384" s="3" t="s">
@@ -5337,7 +5344,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B385" s="3" t="s">
@@ -5345,7 +5352,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B386" s="3" t="s">
@@ -5353,7 +5360,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B387" s="3" t="s">
@@ -5361,7 +5368,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="3" t="s">
+      <c r="A388" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B388" s="3" t="s">
@@ -5369,15 +5376,15 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="3" t="s">
+      <c r="A389" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="3" t="s">
+    <row r="390" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A390" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B390" s="3" t="s">
@@ -5385,15 +5392,15 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="3" t="s">
+      <c r="A391" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="3" t="s">
+    <row r="392" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A392" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B392" s="3" t="s">
@@ -5401,7 +5408,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B393" s="3" t="s">
@@ -5409,7 +5416,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="3" t="s">
+      <c r="A394" s="5" t="s">
         <v>508</v>
       </c>
       <c r="B394" s="3" t="s">
@@ -5417,7 +5424,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="3" t="s">
+      <c r="A395" s="5" t="s">
         <v>510</v>
       </c>
       <c r="B395" s="3" t="s">
@@ -5425,7 +5432,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="3" t="s">
+      <c r="A396" s="5" t="s">
         <v>512</v>
       </c>
       <c r="B396" s="3" t="s">
@@ -5433,7 +5440,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="3" t="s">
+      <c r="A397" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B397" s="3" t="s">
@@ -5441,7 +5448,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="3" t="s">
+      <c r="A398" s="5" t="s">
         <v>515</v>
       </c>
       <c r="B398" s="3" t="s">
@@ -5449,7 +5456,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="5" t="s">
         <v>517</v>
       </c>
       <c r="B399" s="3" t="s">
@@ -5457,7 +5464,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B400" s="3" t="s">
@@ -5465,7 +5472,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="5" t="s">
         <v>520</v>
       </c>
       <c r="B401" s="3" t="s">
@@ -5473,7 +5480,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B402" s="3" t="s">
@@ -5481,7 +5488,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="3" t="s">
+      <c r="A403" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B403" s="3" t="s">
@@ -5489,7 +5496,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="3" t="s">
+      <c r="A404" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B404" s="3" t="s">
@@ -5497,7 +5504,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="3" t="s">
+      <c r="A405" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B405" s="3" t="s">
@@ -5505,7 +5512,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="s">
+      <c r="A406" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B406" s="3" t="s">
@@ -5513,7 +5520,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="3" t="s">
+      <c r="A407" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B407" s="3" t="s">
@@ -5521,7 +5528,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="s">
+      <c r="A408" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B408" s="3" t="s">
@@ -5529,7 +5536,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B409" s="3" t="s">
@@ -5537,7 +5544,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B410" s="3" t="s">
@@ -5545,7 +5552,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B411" s="3" t="s">
@@ -5553,7 +5560,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="s">
+      <c r="A412" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B412" s="3" t="s">
@@ -5561,7 +5568,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B413" s="3" t="s">
@@ -5569,7 +5576,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B414" s="3" t="s">
@@ -5577,7 +5584,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="3" t="s">
+      <c r="A415" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B415" s="3" t="s">
@@ -5585,7 +5592,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="3" t="s">
+      <c r="A416" s="5" t="s">
         <v>528</v>
       </c>
       <c r="B416" s="3" t="s">
@@ -5593,7 +5600,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="5" t="s">
         <v>530</v>
       </c>
       <c r="B417" s="3" t="s">
@@ -5601,7 +5608,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="3" t="s">
+      <c r="A418" s="5" t="s">
         <v>532</v>
       </c>
       <c r="B418" s="3" t="s">
@@ -5609,7 +5616,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="3" t="s">
+      <c r="A419" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B419" s="3" t="s">
@@ -5617,7 +5624,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="5" t="s">
         <v>536</v>
       </c>
       <c r="B420" s="3" t="s">
@@ -5625,7 +5632,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B421" s="3" t="s">
@@ -5633,7 +5640,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="3" t="s">
+      <c r="A422" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B422" s="3" t="s">
@@ -5641,7 +5648,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B423" s="3" t="s">
@@ -5649,7 +5656,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="3" t="s">
+      <c r="A424" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B424" s="3" t="s">
@@ -5657,15 +5664,15 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="3" t="s">
+    <row r="426" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A426" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B426" s="3" t="s">
@@ -5673,7 +5680,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="3" t="s">
+      <c r="A427" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B427" s="3" t="s">
@@ -5681,7 +5688,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="3" t="s">
+      <c r="A428" s="5" t="s">
         <v>541</v>
       </c>
       <c r="B428" s="3" t="s">
@@ -5689,7 +5696,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="5" t="s">
         <v>543</v>
       </c>
       <c r="B429" s="3" t="s">
@@ -5697,7 +5704,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="3" t="s">
+      <c r="A430" s="5" t="s">
         <v>479</v>
       </c>
       <c r="B430" s="3" t="s">
@@ -5705,7 +5712,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="3" t="s">
+      <c r="A431" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B431" s="3" t="s">
@@ -5713,15 +5720,15 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="3" t="s">
+      <c r="A432" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="3" t="s">
+    <row r="433" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A433" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B433" s="3" t="s">
@@ -5729,15 +5736,15 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="3" t="s">
+      <c r="A434" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="3" t="s">
+    <row r="435" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A435" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B435" s="3" t="s">
@@ -5745,7 +5752,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="3" t="s">
+      <c r="A436" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B436" s="3" t="s">
@@ -5753,7 +5760,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="3" t="s">
+      <c r="A437" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B437" s="3" t="s">
@@ -5761,7 +5768,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="3" t="s">
+      <c r="A438" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B438" s="3" t="s">
@@ -5769,7 +5776,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="3" t="s">
+      <c r="A439" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
@@ -5777,7 +5784,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="3" t="s">
+      <c r="A440" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
@@ -5785,7 +5792,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="3" t="s">
+      <c r="A441" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
@@ -5793,7 +5800,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="3" t="s">
+      <c r="A442" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B442" s="3" t="s">
@@ -5801,7 +5808,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="3" t="s">
+      <c r="A443" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B443" s="3" t="s">
@@ -5809,7 +5816,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="3" t="s">
+      <c r="A444" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B444" s="3" t="s">
@@ -5817,7 +5824,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="3" t="s">
+      <c r="A445" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B445" s="3" t="s">
@@ -5825,7 +5832,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="3" t="s">
+      <c r="A446" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B446" s="3" t="s">
@@ -5833,7 +5840,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="3" t="s">
+      <c r="A447" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B447" s="3" t="s">
@@ -5841,7 +5848,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="3" t="s">
+      <c r="A448" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B448" s="3" t="s">
@@ -5849,7 +5856,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="3" t="s">
+      <c r="A449" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B449" s="3" t="s">
@@ -5857,7 +5864,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="3" t="s">
+      <c r="A450" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B450" s="3" t="s">
@@ -5865,7 +5872,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="3" t="s">
+      <c r="A451" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B451" s="3" t="s">
@@ -5873,7 +5880,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="3" t="s">
+      <c r="A452" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B452" s="3" t="s">
@@ -5881,7 +5888,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="3" t="s">
+      <c r="A453" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B453" s="3" t="s">
@@ -5889,7 +5896,7 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="3" t="s">
+      <c r="A454" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B454" s="3" t="s">
@@ -5897,7 +5904,7 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="3" t="s">
+      <c r="A455" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B455" s="3" t="s">
@@ -5905,7 +5912,7 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="3" t="s">
+      <c r="A456" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B456" s="3" t="s">
@@ -5913,7 +5920,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="3" t="s">
+      <c r="A457" s="5" t="s">
         <v>495</v>
       </c>
       <c r="B457" s="3" t="s">
@@ -5921,7 +5928,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="3" t="s">
+      <c r="A458" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B458" s="3" t="s">
@@ -5929,7 +5936,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="3" t="s">
+      <c r="A459" s="5" t="s">
         <v>493</v>
       </c>
       <c r="B459" s="3" t="s">
@@ -5937,15 +5944,15 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="3" t="s">
+      <c r="A460" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="3" t="s">
+    <row r="461" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A461" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B461" s="3" t="s">
@@ -5953,15 +5960,15 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="3" t="s">
+      <c r="A462" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="3" t="s">
+    <row r="463" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A463" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B463" s="3" t="s">
@@ -5969,15 +5976,15 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="3" t="s">
+      <c r="A464" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="3" t="s">
+    <row r="465" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A465" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B465" s="3" t="s">
@@ -5985,15 +5992,15 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="3" t="s">
+      <c r="A466" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="3" t="s">
+    <row r="467" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A467" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B467" s="3" t="s">
@@ -6001,15 +6008,15 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="3" t="s">
+      <c r="A468" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="3" t="s">
+    <row r="469" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A469" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B469" s="3" t="s">
@@ -6017,7 +6024,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="3" t="s">
+      <c r="A470" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B470" s="3" t="s">
@@ -6025,7 +6032,7 @@
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="3" t="s">
+      <c r="A471" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B471" s="3" t="s">
@@ -6033,7 +6040,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="3" t="s">
+      <c r="A472" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B472" s="3" t="s">
@@ -6041,7 +6048,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="3" t="s">
+      <c r="A473" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B473" s="3" t="s">
@@ -6049,7 +6056,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="3" t="s">
+      <c r="A474" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B474" s="3" t="s">
@@ -6057,7 +6064,7 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="3" t="s">
+      <c r="A475" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B475" s="3" t="s">
@@ -6065,7 +6072,7 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="3" t="s">
+      <c r="A476" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B476" s="3" t="s">
@@ -6073,7 +6080,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="3" t="s">
+      <c r="A477" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B477" s="3" t="s">
@@ -6081,7 +6088,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="3" t="s">
+      <c r="A478" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B478" s="3" t="s">
@@ -6089,7 +6096,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="3" t="s">
+      <c r="A479" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B479" s="3" t="s">
@@ -6097,7 +6104,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="3" t="s">
+      <c r="A480" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B480" s="3" t="s">
@@ -6105,7 +6112,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="3" t="s">
+      <c r="A481" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B481" s="3" t="s">
@@ -6113,7 +6120,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="3" t="s">
+      <c r="A482" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B482" s="3" t="s">
@@ -6121,7 +6128,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="3" t="s">
+      <c r="A483" s="5" t="s">
         <v>551</v>
       </c>
       <c r="B483" s="3" t="s">
@@ -6129,7 +6136,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="3" t="s">
+      <c r="A484" s="5" t="s">
         <v>553</v>
       </c>
       <c r="B484" s="3" t="s">
@@ -6137,7 +6144,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="3" t="s">
+      <c r="A485" s="5" t="s">
         <v>555</v>
       </c>
       <c r="B485" s="3" t="s">
@@ -6145,7 +6152,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="3" t="s">
+      <c r="A486" s="5" t="s">
         <v>557</v>
       </c>
       <c r="B486" s="3" t="s">
@@ -6153,7 +6160,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="3" t="s">
+      <c r="A487" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B487" s="3" t="s">
@@ -6161,15 +6168,15 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="3" t="s">
+      <c r="A488" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="3" t="s">
+    <row r="489" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A489" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B489" s="3" t="s">
@@ -6177,7 +6184,7 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="3" t="s">
+      <c r="A490" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B490" s="3" t="s">
@@ -6185,7 +6192,7 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="3" t="s">
+      <c r="A491" s="5" t="s">
         <v>560</v>
       </c>
       <c r="B491" s="3" t="s">
@@ -6193,7 +6200,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="3" t="s">
+      <c r="A492" s="5" t="s">
         <v>562</v>
       </c>
       <c r="B492" s="3" t="s">
@@ -6201,7 +6208,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="3" t="s">
+      <c r="A493" s="5" t="s">
         <v>564</v>
       </c>
       <c r="B493" s="3" t="s">
@@ -6209,7 +6216,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="3" t="s">
+      <c r="A494" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B494" s="3" t="s">
@@ -6217,7 +6224,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="3" t="s">
+      <c r="A495" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B495" s="3" t="s">
@@ -6225,7 +6232,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="3" t="s">
+      <c r="A496" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B496" s="3" t="s">
@@ -6233,15 +6240,15 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="3" t="s">
+      <c r="A497" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="3" t="s">
+    <row r="498" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A498" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B498" s="3" t="s">
@@ -6249,7 +6256,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="3" t="s">
+      <c r="A499" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B499" s="3" t="s">
@@ -6257,7 +6264,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="3" t="s">
+      <c r="A500" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B500" s="3" t="s">
@@ -6265,7 +6272,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="3" t="s">
+      <c r="A501" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B501" s="3" t="s">
@@ -6273,7 +6280,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="3" t="s">
+      <c r="A502" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B502" s="3" t="s">
@@ -6281,7 +6288,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="3" t="s">
+      <c r="A503" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B503" s="3" t="s">
@@ -6289,7 +6296,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="3" t="s">
+      <c r="A504" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B504" s="3" t="s">
@@ -6297,7 +6304,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="3" t="s">
+      <c r="A505" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B505" s="3" t="s">
@@ -6305,7 +6312,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="3" t="s">
+      <c r="A506" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B506" s="3" t="s">
@@ -6313,7 +6320,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="3" t="s">
+      <c r="A507" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B507" s="3" t="s">
@@ -6321,7 +6328,7 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="3" t="s">
+      <c r="A508" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B508" s="3" t="s">
@@ -6329,7 +6336,7 @@
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="3" t="s">
+      <c r="A509" s="5" t="s">
         <v>574</v>
       </c>
       <c r="B509" s="3" t="s">
@@ -6337,7 +6344,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="3" t="s">
+      <c r="A510" s="5" t="s">
         <v>576</v>
       </c>
       <c r="B510" s="3" t="s">
@@ -6345,7 +6352,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="3" t="s">
+      <c r="A511" s="5" t="s">
         <v>578</v>
       </c>
       <c r="B511" s="3" t="s">
@@ -6353,7 +6360,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="3" t="s">
+      <c r="A512" s="5" t="s">
         <v>580</v>
       </c>
       <c r="B512" s="3" t="s">
@@ -6361,7 +6368,7 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="3" t="s">
+      <c r="A513" s="5" t="s">
         <v>582</v>
       </c>
       <c r="B513" s="3" t="s">
@@ -6369,7 +6376,7 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="3" t="s">
+      <c r="A514" s="5" t="s">
         <v>584</v>
       </c>
       <c r="B514" s="3" t="s">
@@ -6377,7 +6384,7 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="3" t="s">
+      <c r="A515" s="5" t="s">
         <v>586</v>
       </c>
       <c r="B515" s="3" t="s">
@@ -6385,7 +6392,7 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="3" t="s">
+      <c r="A516" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B516" s="3" t="s">
@@ -6393,7 +6400,7 @@
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="3" t="s">
+      <c r="A517" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B517" s="3" t="s">
@@ -6401,7 +6408,7 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="3" t="s">
+      <c r="A518" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B518" s="3" t="s">
@@ -6409,7 +6416,7 @@
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="3" t="s">
+      <c r="A519" s="5" t="s">
         <v>587</v>
       </c>
       <c r="B519" s="3" t="s">
@@ -6417,7 +6424,7 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" s="3" t="s">
+      <c r="A520" s="5" t="s">
         <v>589</v>
       </c>
       <c r="B520" s="3" t="s">
@@ -6425,7 +6432,7 @@
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" s="3" t="s">
+      <c r="A521" s="5" t="s">
         <v>591</v>
       </c>
       <c r="B521" s="3" t="s">
@@ -6433,7 +6440,7 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="3" t="s">
+      <c r="A522" s="5" t="s">
         <v>593</v>
       </c>
       <c r="B522" s="3" t="s">
@@ -6441,7 +6448,7 @@
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" s="3" t="s">
+      <c r="A523" s="5" t="s">
         <v>595</v>
       </c>
       <c r="B523" s="3" t="s">
@@ -6449,7 +6456,7 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" s="3" t="s">
+      <c r="A524" s="5" t="s">
         <v>597</v>
       </c>
       <c r="B524" s="3" t="s">

--- a/EDA/eda_planning.xlsx
+++ b/EDA/eda_planning.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0l05iw\Documents\toy\house_prices\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2283D85-D5E2-463A-838F-8A02CF32EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3A41C-25F2-4A3E-B9AE-E2C9A3B5BD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="2820" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="2472" windowWidth="21600" windowHeight="11328" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21600" windowHeight="11328" xr2:uid="{19968416-5AB8-48B9-A185-C9BEBE03D1A4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_description" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$82</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">data_description!$A$1:$B$524</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="604">
   <si>
     <t>fields</t>
   </si>
@@ -1837,19 +1839,16 @@
     <t>Individual EDA</t>
   </si>
   <si>
-    <t>Bar plot</t>
-  </si>
-  <si>
-    <t>Target EDA</t>
-  </si>
-  <si>
-    <t>Boxplot by class / heatmap of mct</t>
-  </si>
-  <si>
-    <t>Histogram</t>
-  </si>
-  <si>
-    <t>Scatterplot</t>
+    <t>null percent</t>
+  </si>
+  <si>
+    <t>will analyze</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1870,18 +1869,25 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1908,36 +1914,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1967,8 +1978,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F452A8F7-1EB2-4BB4-9CC0-C96B1F6AED79}" name="data_description__2" displayName="data_description__2" ref="A1:B524" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B524" xr:uid="{F452A8F7-1EB2-4BB4-9CC0-C96B1F6AED79}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{44AB8C47-F4F9-4985-AA53-DFBCA9DF3798}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{D16C9AED-CA75-4CDF-997B-465758D2E4F8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{44AB8C47-F4F9-4985-AA53-DFBCA9DF3798}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D16C9AED-CA75-4CDF-997B-465758D2E4F8}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2261,18 +2272,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE888919-F0FA-4BA8-A542-B191DC88A8EE}">
   <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B404" workbookViewId="1">
+      <selection activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="74.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B1" t="s">
@@ -2280,4895 +2294,5125 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="A62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="A77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="A109" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" s="3" t="s">
+      <c r="A111" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B121" s="3" t="s">
+      <c r="A121" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="A123" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B133" s="3" t="s">
+      <c r="A133" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B135" s="3" t="s">
+      <c r="A135" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="A141" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B143" s="3" t="s">
+      <c r="A143" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="A152" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B154" s="3" t="s">
+      <c r="A154" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B165" s="3" t="s">
+      <c r="A165" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B167" s="3" t="s">
+      <c r="A167" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B178" s="3" t="s">
+      <c r="A178" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B180" s="3" t="s">
+      <c r="A180" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B182" s="3" t="s">
+      <c r="A182" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B184" s="3" t="s">
+      <c r="A184" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B191" s="3" t="s">
+      <c r="A191" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B193" s="3" t="s">
+      <c r="A193" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="2" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B202" s="3" t="s">
+      <c r="A202" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B204" s="3" t="s">
+      <c r="A204" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="2" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B222" s="3" t="s">
+      <c r="A222" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B224" s="3" t="s">
+      <c r="A224" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="2" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B242" s="3" t="s">
+      <c r="A242" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B244" s="3" t="s">
+      <c r="A244" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B250" s="3" t="s">
+      <c r="A250" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B252" s="3" t="s">
+      <c r="A252" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B254" s="3" t="s">
+      <c r="A254" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B260" s="3" t="s">
+      <c r="A260" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B262" s="3" t="s">
+      <c r="A262" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B268" s="3" t="s">
+      <c r="A268" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B270" s="3" t="s">
+      <c r="A270" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="2" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="2" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="2" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B277" s="3" t="s">
+      <c r="A277" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B279" s="3" t="s">
+      <c r="A279" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="2" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="2" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="2" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="2" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="2" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B286" s="3" t="s">
+      <c r="A286" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B288" s="3" t="s">
+      <c r="A288" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="2" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="5" t="s">
+      <c r="A292" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="2" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="2" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="5" t="s">
+      <c r="A294" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="2" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B295" s="3" t="s">
+      <c r="A295" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B297" s="3" t="s">
+      <c r="A297" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="2" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="2" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="2" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="2" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="2" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B303" s="3" t="s">
+      <c r="A303" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B305" s="3" t="s">
+      <c r="A305" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="2" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="2" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="5" t="s">
+      <c r="A309" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="2" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="5" t="s">
+      <c r="A310" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="2" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="5" t="s">
+      <c r="A311" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="2" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="2" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B313" s="3" t="s">
+      <c r="A313" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B315" s="3" t="s">
+      <c r="A315" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A316" s="5" t="s">
+      <c r="A316" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B317" s="3" t="s">
+      <c r="A317" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="5" t="s">
+      <c r="A318" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="2" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="2" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="2" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="2" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="2" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="2" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B325" s="3" t="s">
+      <c r="A325" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A326" s="5" t="s">
+      <c r="A326" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B327" s="3" t="s">
+      <c r="A327" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B329" s="3" t="s">
+      <c r="A329" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B331" s="3" t="s">
+      <c r="A331" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B333" s="3" t="s">
+      <c r="A333" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="2" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="5" t="s">
+      <c r="A335" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="2" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="5" t="s">
+      <c r="A336" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="2" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="5" t="s">
+      <c r="A337" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="2" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="5" t="s">
+      <c r="A338" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="2" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="5" t="s">
+      <c r="A339" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="2" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B340" s="3" t="s">
+      <c r="A340" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B342" s="3" t="s">
+      <c r="A342" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="5" t="s">
+      <c r="A343" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="5" t="s">
+      <c r="A347" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B348" s="3" t="s">
+      <c r="A348" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="5" t="s">
+      <c r="A349" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B350" s="3" t="s">
+      <c r="A350" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="5" t="s">
+      <c r="A351" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" s="2" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="2" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B353" s="3" t="s">
+      <c r="A353" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B355" s="3" t="s">
+      <c r="A355" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="5" t="s">
+      <c r="A356" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="2" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="5" t="s">
+      <c r="A358" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="2" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="5" t="s">
+      <c r="A359" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="2" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="5" t="s">
+      <c r="A360" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="2" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B361" s="3" t="s">
+      <c r="A361" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="5" t="s">
+      <c r="A362" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="5" t="s">
+      <c r="A363" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B365" s="3" t="s">
+      <c r="A365" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A366" s="5" t="s">
+      <c r="A366" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B367" s="3" t="s">
+      <c r="A367" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A368" s="5" t="s">
+      <c r="A368" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B368" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B369" s="3" t="s">
+      <c r="A369" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A370" s="5" t="s">
+      <c r="A370" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B371" s="3" t="s">
+      <c r="A371" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B373" s="3" t="s">
+      <c r="A373" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A374" s="5" t="s">
+      <c r="A374" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B375" s="3" t="s">
+      <c r="A375" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="5" t="s">
+      <c r="A376" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B377" s="3" t="s">
+      <c r="A377" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A378" s="5" t="s">
+      <c r="A378" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B379" s="3" t="s">
+      <c r="A379" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="5" t="s">
+      <c r="A380" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B381" s="3" t="s">
+      <c r="A381" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="5" t="s">
+      <c r="A382" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B383" s="3" t="s">
+      <c r="A383" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="5" t="s">
+      <c r="A384" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="5" t="s">
+      <c r="A385" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="5" t="s">
+      <c r="A386" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="5" t="s">
+      <c r="A387" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="5" t="s">
+      <c r="A388" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="5" t="s">
+      <c r="A389" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A390" s="5" t="s">
+      <c r="A390" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B391" s="3" t="s">
+      <c r="A391" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A392" s="5" t="s">
+      <c r="A392" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B393" s="3" t="s">
+      <c r="A393" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="5" t="s">
+      <c r="A394" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" s="2" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="5" t="s">
+      <c r="A395" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="2" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="5" t="s">
+      <c r="A396" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" s="2" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="5" t="s">
+      <c r="A397" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" s="2" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="5" t="s">
+      <c r="A398" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="2" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="5" t="s">
+      <c r="A399" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="5" t="s">
+      <c r="A400" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="2" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="5" t="s">
+      <c r="A401" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="2" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B402" s="3" t="s">
+      <c r="A402" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="5" t="s">
+      <c r="A403" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B404" s="3" t="s">
+      <c r="A404" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="5" t="s">
+      <c r="A405" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B405" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B406" s="3" t="s">
+      <c r="A406" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="5" t="s">
+      <c r="A407" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" s="2" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="5" t="s">
+      <c r="A408" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" s="2" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="5" t="s">
+      <c r="A409" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" s="2" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="5" t="s">
+      <c r="A410" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" s="2" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="5" t="s">
+      <c r="A411" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" s="2" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="5" t="s">
+      <c r="A412" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" s="2" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B413" s="3" t="s">
+      <c r="A413" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B414" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B415" s="3" t="s">
+      <c r="A415" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" s="2" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="5" t="s">
+      <c r="A417" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="2" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="5" t="s">
+      <c r="A418" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" s="2" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="5" t="s">
+      <c r="A419" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" s="2" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="5" t="s">
+      <c r="A420" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" s="9" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" s="2" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="5" t="s">
+      <c r="A422" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" s="2" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B423" s="3" t="s">
+      <c r="A423" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="5" t="s">
+      <c r="A424" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B425" s="3" t="s">
+      <c r="A425" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A426" s="5" t="s">
+      <c r="A426" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B427" s="3" t="s">
+      <c r="A427" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="5" t="s">
+      <c r="A428" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" s="2" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="5" t="s">
+      <c r="A429" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" s="2" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="5" t="s">
+      <c r="A430" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" s="2" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="5" t="s">
+      <c r="A431" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" s="2" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B432" s="3" t="s">
+      <c r="A432" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A433" s="5" t="s">
+      <c r="A433" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B434" s="3" t="s">
+      <c r="A434" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A435" s="5" t="s">
+      <c r="A435" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B436" s="3" t="s">
+      <c r="A436" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="5" t="s">
+      <c r="A437" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B437" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B438" s="3" t="s">
+      <c r="A438" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="5" t="s">
+      <c r="A439" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="B439" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B440" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="5" t="s">
+      <c r="A441" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B441" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="5" t="s">
+      <c r="A442" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B442" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="5" t="s">
+      <c r="A443" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="B443" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="5" t="s">
+      <c r="A444" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B444" s="2" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B445" s="3" t="s">
+      <c r="A445" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="5" t="s">
+      <c r="A446" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B447" s="3" t="s">
+      <c r="A447" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B447" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="5" t="s">
+      <c r="A448" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B448" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="5" t="s">
+      <c r="A449" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B449" s="3" t="s">
+      <c r="B449" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="5" t="s">
+      <c r="A450" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B450" s="3" t="s">
+      <c r="B450" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="5" t="s">
+      <c r="A451" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B451" s="3" t="s">
+      <c r="B451" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="5" t="s">
+      <c r="A452" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B452" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="5" t="s">
+      <c r="A453" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" s="2" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B454" s="3" t="s">
+      <c r="A454" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B454" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="5" t="s">
+      <c r="A455" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="B455" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B456" s="3" t="s">
+      <c r="A456" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="5" t="s">
+      <c r="A457" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="B457" s="2" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="5" t="s">
+      <c r="A458" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B458" s="3" t="s">
+      <c r="B458" s="2" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="5" t="s">
+      <c r="A459" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B459" s="2" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B460" s="3" t="s">
+      <c r="A460" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A461" s="5" t="s">
+      <c r="A461" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B461" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B462" s="3" t="s">
+      <c r="A462" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A463" s="5" t="s">
+      <c r="A463" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B463" s="3" t="s">
+      <c r="B463" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B464" s="3" t="s">
+      <c r="A464" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B464" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A465" s="5" t="s">
+      <c r="A465" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B465" s="3" t="s">
+      <c r="B465" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B466" s="3" t="s">
+      <c r="A466" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B466" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A467" s="5" t="s">
+      <c r="A467" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="B467" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B468" s="3" t="s">
+      <c r="A468" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A469" s="5" t="s">
+      <c r="A469" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B469" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B470" s="3" t="s">
+      <c r="A470" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="5" t="s">
+      <c r="A471" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B471" s="3" t="s">
+      <c r="B471" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B472" s="3" t="s">
+      <c r="A472" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="5" t="s">
+      <c r="A473" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B473" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B474" s="3" t="s">
+      <c r="A474" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="5" t="s">
+      <c r="A475" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B475" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="5" t="s">
+      <c r="A476" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B476" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="5" t="s">
+      <c r="A477" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="B477" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="5" t="s">
+      <c r="A478" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="B478" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="5" t="s">
+      <c r="A479" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="B479" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B480" s="3" t="s">
+      <c r="A480" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B480" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="5" t="s">
+      <c r="A481" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B481" s="3" t="s">
+      <c r="B481" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B482" s="3" t="s">
+      <c r="A482" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B482" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="5" t="s">
+      <c r="A483" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B483" s="3" t="s">
+      <c r="B483" s="2" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="5" t="s">
+      <c r="A484" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B484" s="2" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="5" t="s">
+      <c r="A485" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B485" s="2" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="5" t="s">
+      <c r="A486" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="B486" s="2" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="5" t="s">
+      <c r="A487" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="B487" s="2" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B488" s="3" t="s">
+      <c r="A488" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A489" s="5" t="s">
+      <c r="A489" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="B489" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B490" s="3" t="s">
+      <c r="A490" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B490" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="5" t="s">
+      <c r="A491" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="B491" s="2" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="5" t="s">
+      <c r="A492" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B492" s="3" t="s">
+      <c r="B492" s="2" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="5" t="s">
+      <c r="A493" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B493" s="3" t="s">
+      <c r="B493" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="5" t="s">
+      <c r="A494" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B494" s="3" t="s">
+      <c r="B494" s="2" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="5" t="s">
+      <c r="A495" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B495" s="3" t="s">
+      <c r="B495" s="2" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="5" t="s">
+      <c r="A496" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B496" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B497" s="3" t="s">
+      <c r="A497" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B497" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A498" s="5" t="s">
+      <c r="A498" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B498" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B499" s="3" t="s">
+      <c r="A499" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B499" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="5" t="s">
+      <c r="A500" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B500" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B501" s="3" t="s">
+      <c r="A501" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B501" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="5" t="s">
+      <c r="A502" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B502" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B503" s="3" t="s">
+      <c r="A503" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B503" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="5" t="s">
+      <c r="A504" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B504" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B505" s="3" t="s">
+      <c r="A505" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="5" t="s">
+      <c r="A506" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B506" s="2" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="5" t="s">
+      <c r="A507" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B507" s="3" t="s">
+      <c r="B507" s="2" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="5" t="s">
+      <c r="A508" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B508" s="2" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="5" t="s">
+      <c r="A509" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B509" s="2" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="5" t="s">
+      <c r="A510" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B510" s="3" t="s">
+      <c r="B510" s="2" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="5" t="s">
+      <c r="A511" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B511" s="3" t="s">
+      <c r="B511" s="2" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="5" t="s">
+      <c r="A512" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B512" s="3" t="s">
+      <c r="B512" s="2" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="5" t="s">
+      <c r="A513" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B513" s="2" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="5" t="s">
+      <c r="A514" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B514" s="3" t="s">
+      <c r="B514" s="2" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="5" t="s">
+      <c r="A515" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B515" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B516" s="3" t="s">
+      <c r="A516" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B516" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="5" t="s">
+      <c r="A517" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B517" s="3" t="s">
+      <c r="B517" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B518" s="3" t="s">
+      <c r="A518" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B518" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="5" t="s">
+      <c r="A519" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B519" s="3" t="s">
+      <c r="B519" s="2" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" s="5" t="s">
+      <c r="A520" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B520" s="3" t="s">
+      <c r="B520" s="2" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" s="5" t="s">
+      <c r="A521" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B521" s="2" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="5" t="s">
+      <c r="A522" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="B522" s="2" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" s="5" t="s">
+      <c r="A523" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B523" s="3" t="s">
+      <c r="B523" s="2" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" s="5" t="s">
+      <c r="A524" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B524" s="3" t="s">
+      <c r="B524" s="2" t="s">
         <v>598</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF82"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.17739726027397201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.93767123287671195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>602</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>603</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>602</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>602</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>602</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>602</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>602</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>602</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>602</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>603</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>603</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>602</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>602</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5.4794520547945197E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>602</v>
+      </c>
+      <c r="C28" s="6">
+        <v>5.4794520547945197E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>603</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>602</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>602</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>603</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2.5342465753424599E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>602</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2.5342465753424599E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>603</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2.60273972602739E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>602</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2.5342465753424599E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>603</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>602</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2.60273972602739E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>603</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>603</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>602</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>602</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>602</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>602</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>602</v>
+      </c>
+      <c r="C44" s="6">
+        <v>6.8493150684931497E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>602</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>602</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>603</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>603</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>602</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>602</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>602</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>602</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>602</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>602</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>603</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>603</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>602</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>603</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>603</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.47260273972602701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>602</v>
+      </c>
+      <c r="C60" s="6">
+        <v>5.5479452054794501E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>603</v>
+      </c>
+      <c r="C61" s="6">
+        <v>5.5479452054794501E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>603</v>
+      </c>
+      <c r="C62" s="6">
+        <v>5.5479452054794501E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>603</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>602</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>603</v>
+      </c>
+      <c r="C65" s="6">
+        <v>5.5479452054794501E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>602</v>
+      </c>
+      <c r="C66" s="6">
+        <v>5.5479452054794501E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>603</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>602</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>602</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>603</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>603</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>603</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>602</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>603</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0.99520547945205395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>603</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0.80753424657534201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>603</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0.96301369863013697</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>603</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>602</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>602</v>
+      </c>
+      <c r="C79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>602</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>602</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>602</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C82" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
